--- a/plan.xlsx
+++ b/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12525" tabRatio="993"/>
+    <workbookView windowWidth="21795" windowHeight="12525" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,14 +46,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -77,13 +83,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,6 +121,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -112,20 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -134,98 +219,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,7 +253,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,6 +373,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -276,37 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,121 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,30 +444,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,17 +462,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +497,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,153 +535,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,7 +1015,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1061,11 +1058,11 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" s="1">
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1075,11 +1072,11 @@
       <c r="A3">
         <v>1029</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1155,7 +1152,6 @@
       <c r="A7">
         <v>1102</v>
       </c>
-      <c r="B7"/>
       <c r="F7">
         <v>3</v>
       </c>
@@ -1167,7 +1163,6 @@
       <c r="A8">
         <v>1103</v>
       </c>
-      <c r="B8"/>
       <c r="F8">
         <v>3</v>
       </c>
@@ -1255,7 +1250,6 @@
       <c r="A14">
         <v>1109</v>
       </c>
-      <c r="B14"/>
       <c r="H14">
         <v>3</v>
       </c>
@@ -1264,7 +1258,6 @@
       <c r="A15">
         <v>1110</v>
       </c>
-      <c r="B15"/>
       <c r="H15">
         <v>5</v>
       </c>
@@ -1343,7 +1336,6 @@
       <c r="A21">
         <v>1116</v>
       </c>
-      <c r="B21"/>
       <c r="H21">
         <v>3</v>
       </c>
@@ -1352,7 +1344,6 @@
       <c r="A22">
         <v>1117</v>
       </c>
-      <c r="B22"/>
       <c r="H22">
         <v>5</v>
       </c>
@@ -1431,7 +1422,6 @@
       <c r="A28">
         <v>1123</v>
       </c>
-      <c r="B28"/>
       <c r="H28">
         <v>3</v>
       </c>
@@ -1440,7 +1430,6 @@
       <c r="A29">
         <v>1124</v>
       </c>
-      <c r="B29"/>
       <c r="H29">
         <v>5</v>
       </c>
@@ -1449,7 +1438,6 @@
       <c r="A30">
         <v>1125</v>
       </c>
-      <c r="B30"/>
       <c r="C30">
         <v>2</v>
       </c>
@@ -1461,7 +1449,6 @@
       <c r="A31">
         <v>1126</v>
       </c>
-      <c r="B31"/>
       <c r="C31">
         <v>2</v>
       </c>
@@ -1473,7 +1460,6 @@
       <c r="A32">
         <v>1127</v>
       </c>
-      <c r="B32"/>
       <c r="C32">
         <v>2</v>
       </c>
@@ -1485,7 +1471,6 @@
       <c r="A33">
         <v>1128</v>
       </c>
-      <c r="B33"/>
       <c r="C33">
         <v>2</v>
       </c>
@@ -1497,7 +1482,6 @@
       <c r="A34">
         <v>1129</v>
       </c>
-      <c r="B34"/>
       <c r="C34">
         <v>2</v>
       </c>
@@ -1509,13 +1493,12 @@
       <c r="A35">
         <v>1130</v>
       </c>
-      <c r="B35"/>
       <c r="H35">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>40</v>
       </c>
     </row>
@@ -1523,7 +1506,6 @@
       <c r="A37">
         <v>1201</v>
       </c>
-      <c r="B37"/>
       <c r="C37">
         <v>2</v>
       </c>
@@ -1535,7 +1517,6 @@
       <c r="A38">
         <v>1202</v>
       </c>
-      <c r="B38"/>
       <c r="C38">
         <v>2</v>
       </c>
@@ -1547,7 +1528,6 @@
       <c r="A39">
         <v>1203</v>
       </c>
-      <c r="B39"/>
       <c r="C39">
         <v>2</v>
       </c>
@@ -1559,7 +1539,6 @@
       <c r="A40">
         <v>1204</v>
       </c>
-      <c r="B40"/>
       <c r="C40">
         <v>2</v>
       </c>
@@ -1571,7 +1550,6 @@
       <c r="A41">
         <v>1205</v>
       </c>
-      <c r="B41"/>
       <c r="C41">
         <v>2</v>
       </c>
@@ -1583,7 +1561,6 @@
       <c r="A42">
         <v>1206</v>
       </c>
-      <c r="B42"/>
       <c r="C42">
         <v>2</v>
       </c>
@@ -1595,7 +1572,6 @@
       <c r="A43">
         <v>1207</v>
       </c>
-      <c r="B43"/>
       <c r="H43">
         <v>3</v>
       </c>
@@ -1604,7 +1580,6 @@
       <c r="A44">
         <v>1208</v>
       </c>
-      <c r="B44"/>
       <c r="C44">
         <v>2</v>
       </c>
@@ -1616,7 +1591,6 @@
       <c r="A45">
         <v>1209</v>
       </c>
-      <c r="B45"/>
       <c r="C45">
         <v>2</v>
       </c>
@@ -1628,7 +1602,6 @@
       <c r="A46">
         <v>1210</v>
       </c>
-      <c r="B46"/>
       <c r="C46">
         <v>2</v>
       </c>
@@ -1640,7 +1613,6 @@
       <c r="A47">
         <v>1211</v>
       </c>
-      <c r="B47"/>
       <c r="C47">
         <v>2</v>
       </c>
@@ -1652,8 +1624,6 @@
       <c r="A48">
         <v>1212</v>
       </c>
-      <c r="B48"/>
-      <c r="C48"/>
       <c r="D48">
         <v>2</v>
       </c>
@@ -1665,8 +1635,6 @@
       <c r="A49">
         <v>1213</v>
       </c>
-      <c r="B49"/>
-      <c r="C49"/>
       <c r="D49">
         <v>2</v>
       </c>
@@ -1678,8 +1646,6 @@
       <c r="A50">
         <v>1214</v>
       </c>
-      <c r="B50"/>
-      <c r="C50"/>
       <c r="D50">
         <v>2</v>
       </c>
@@ -1691,7 +1657,6 @@
       <c r="A51">
         <v>1215</v>
       </c>
-      <c r="B51"/>
       <c r="D51">
         <v>2</v>
       </c>
@@ -1703,7 +1668,6 @@
       <c r="A52">
         <v>1216</v>
       </c>
-      <c r="B52"/>
       <c r="D52">
         <v>2</v>
       </c>
@@ -1715,7 +1679,6 @@
       <c r="A53">
         <v>1217</v>
       </c>
-      <c r="B53"/>
       <c r="H53">
         <v>7</v>
       </c>
@@ -1724,7 +1687,6 @@
       <c r="A54">
         <v>1218</v>
       </c>
-      <c r="B54"/>
       <c r="H54">
         <v>7</v>
       </c>
@@ -1733,7 +1695,6 @@
       <c r="A55">
         <v>1219</v>
       </c>
-      <c r="B55"/>
       <c r="H55">
         <v>7</v>
       </c>
@@ -1742,7 +1703,6 @@
       <c r="A56">
         <v>1220</v>
       </c>
-      <c r="B56"/>
       <c r="H56">
         <v>7</v>
       </c>
@@ -1751,7 +1711,6 @@
       <c r="A57">
         <v>1221</v>
       </c>
-      <c r="B57"/>
       <c r="H57">
         <v>3</v>
       </c>
@@ -1760,7 +1719,6 @@
       <c r="A58">
         <v>1222</v>
       </c>
-      <c r="B58"/>
       <c r="H58">
         <v>5</v>
       </c>
@@ -1769,7 +1727,6 @@
       <c r="A59">
         <v>1223</v>
       </c>
-      <c r="B59"/>
       <c r="H59">
         <v>7</v>
       </c>
@@ -1778,7 +1735,6 @@
       <c r="A60">
         <v>1224</v>
       </c>
-      <c r="B60"/>
       <c r="H60">
         <v>7</v>
       </c>
@@ -1787,7 +1743,6 @@
       <c r="A61">
         <v>1225</v>
       </c>
-      <c r="B61"/>
       <c r="H61">
         <v>7</v>
       </c>
@@ -1796,7 +1751,6 @@
       <c r="A62">
         <v>1226</v>
       </c>
-      <c r="B62"/>
       <c r="H62">
         <v>7</v>
       </c>
@@ -1805,7 +1759,6 @@
       <c r="A63">
         <v>1227</v>
       </c>
-      <c r="B63"/>
       <c r="H63">
         <v>7</v>
       </c>
@@ -1814,7 +1767,6 @@
       <c r="A64">
         <v>1228</v>
       </c>
-      <c r="B64"/>
       <c r="H64">
         <v>7</v>
       </c>
@@ -1823,7 +1775,6 @@
       <c r="A65">
         <v>1229</v>
       </c>
-      <c r="B65"/>
       <c r="H65">
         <v>7</v>
       </c>
@@ -1832,22 +1783,22 @@
       <c r="A66">
         <v>1230</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" ht="16.5" spans="1:6">
       <c r="A67">
         <v>1231</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="F67" s="6"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="F67" s="8"/>
     </row>
     <row r="68" ht="16.5" spans="2:6">
-      <c r="B68" s="2"/>
-      <c r="C68" s="4">
+      <c r="B68" s="4"/>
+      <c r="C68" s="6">
         <v>70</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1855,37 +1806,36 @@
       <c r="A69">
         <v>101</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
         <v>102</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
         <v>103</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
         <v>104</v>
       </c>
-      <c r="B72" s="5"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
         <v>105</v>
       </c>
-      <c r="B73" s="5"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
         <v>106</v>
       </c>
-      <c r="B74"/>
       <c r="H74">
         <v>7</v>
       </c>
@@ -1894,7 +1844,6 @@
       <c r="A75">
         <v>107</v>
       </c>
-      <c r="B75"/>
       <c r="H75">
         <v>7</v>
       </c>
@@ -1903,7 +1852,6 @@
       <c r="A76">
         <v>108</v>
       </c>
-      <c r="B76"/>
       <c r="H76">
         <v>7</v>
       </c>
@@ -1912,13 +1860,12 @@
       <c r="A77">
         <v>109</v>
       </c>
-      <c r="B77"/>
       <c r="H77">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="1">
+      <c r="D78" s="3">
         <v>20</v>
       </c>
     </row>
@@ -1926,8 +1873,7 @@
       <c r="A79">
         <v>110</v>
       </c>
-      <c r="B79"/>
-      <c r="D79" s="3"/>
+      <c r="D79" s="5"/>
       <c r="H79">
         <v>7</v>
       </c>
@@ -1936,7 +1882,6 @@
       <c r="A80">
         <v>111</v>
       </c>
-      <c r="B80"/>
       <c r="H80">
         <v>3</v>
       </c>
@@ -1945,7 +1890,6 @@
       <c r="A81">
         <v>112</v>
       </c>
-      <c r="B81"/>
       <c r="H81">
         <v>5</v>
       </c>
@@ -1954,7 +1898,6 @@
       <c r="A82">
         <v>113</v>
       </c>
-      <c r="B82"/>
       <c r="H82">
         <v>7</v>
       </c>
@@ -1963,7 +1906,6 @@
       <c r="A83">
         <v>114</v>
       </c>
-      <c r="B83"/>
       <c r="H83">
         <v>7</v>
       </c>
@@ -1972,7 +1914,6 @@
       <c r="A84">
         <v>115</v>
       </c>
-      <c r="B84"/>
       <c r="H84">
         <v>7</v>
       </c>
@@ -1981,7 +1922,6 @@
       <c r="A85">
         <v>116</v>
       </c>
-      <c r="B85"/>
       <c r="H85">
         <v>7</v>
       </c>
@@ -1990,7 +1930,6 @@
       <c r="A86">
         <v>117</v>
       </c>
-      <c r="B86"/>
       <c r="H86">
         <v>7</v>
       </c>
@@ -1999,7 +1938,6 @@
       <c r="A87">
         <v>118</v>
       </c>
-      <c r="B87"/>
       <c r="H87">
         <v>3</v>
       </c>
@@ -2008,7 +1946,6 @@
       <c r="A88">
         <v>119</v>
       </c>
-      <c r="B88"/>
       <c r="H88">
         <v>5</v>
       </c>
@@ -2017,7 +1954,6 @@
       <c r="A89">
         <v>120</v>
       </c>
-      <c r="B89"/>
       <c r="H89">
         <v>7</v>
       </c>
@@ -2026,7 +1962,6 @@
       <c r="A90">
         <v>121</v>
       </c>
-      <c r="B90"/>
       <c r="H90">
         <v>7</v>
       </c>
@@ -2035,7 +1970,6 @@
       <c r="A91">
         <v>122</v>
       </c>
-      <c r="B91"/>
       <c r="H91">
         <v>7</v>
       </c>
@@ -2044,11 +1978,10 @@
       <c r="A92">
         <v>123</v>
       </c>
-      <c r="B92"/>
-      <c r="E92" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" s="4">
+      <c r="E92" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="6">
         <v>120</v>
       </c>
       <c r="H92">
